--- a/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,7 +425,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40938</v>
+        <v>40937</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40939</v>
+        <v>40944</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -441,39 +441,39 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40945</v>
+        <v>40951</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40946</v>
+        <v>40958</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40952</v>
+        <v>40965</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40953</v>
+        <v>40972</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40959</v>
+        <v>40979</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -481,103 +481,103 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40960</v>
+        <v>40986</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>40966</v>
+        <v>40993</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>40967</v>
+        <v>41000</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>40973</v>
+        <v>41007</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>40974</v>
+        <v>41014</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>40980</v>
+        <v>41021</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>40981</v>
+        <v>41028</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>40987</v>
+        <v>41035</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>40988</v>
+        <v>41042</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>40994</v>
+        <v>41049</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>40995</v>
+        <v>41056</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>41001</v>
+        <v>41063</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>41002</v>
+        <v>41070</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -585,15 +585,15 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>41008</v>
+        <v>41077</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>41009</v>
+        <v>41084</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -601,15 +601,15 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>41015</v>
+        <v>41091</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>41016</v>
+        <v>41098</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -617,63 +617,63 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>41022</v>
+        <v>41105</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>41023</v>
+        <v>41112</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>41029</v>
+        <v>41119</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41030</v>
+        <v>41126</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41036</v>
+        <v>41133</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41037</v>
+        <v>41140</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41043</v>
+        <v>41147</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>41044</v>
+        <v>41154</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -681,31 +681,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>41050</v>
+        <v>41161</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>41051</v>
+        <v>41168</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>41057</v>
+        <v>41175</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>41058</v>
+        <v>41182</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -713,39 +713,39 @@
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>41064</v>
+        <v>41189</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>41065</v>
+        <v>41196</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>41072</v>
+        <v>41203</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>41078</v>
+        <v>41210</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>41079</v>
+        <v>41217</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -753,258 +753,18 @@
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>41086</v>
+        <v>41224</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>41093</v>
+        <v>41231</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2">
-        <v>41100</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2">
-        <v>41106</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2">
-        <v>41107</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2">
-        <v>41114</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2">
-        <v>41121</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2">
-        <v>41127</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2">
-        <v>41128</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2">
-        <v>41135</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2">
-        <v>41141</v>
-      </c>
-      <c r="B53">
         <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2">
-        <v>41142</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2">
-        <v>41148</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2">
-        <v>41149</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2">
-        <v>41156</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2">
-        <v>41162</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2">
-        <v>41163</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2">
-        <v>41169</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2">
-        <v>41170</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2">
-        <v>41177</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2">
-        <v>41184</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2">
-        <v>41191</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2">
-        <v>41197</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2">
-        <v>41198</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2">
-        <v>41204</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2">
-        <v>41205</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2">
-        <v>41212</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2">
-        <v>41219</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2">
-        <v>41225</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2">
-        <v>41226</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2">
-        <v>41232</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2">
-        <v>41233</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +774,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1037,7 +797,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>40973</v>
+        <v>40972</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1045,15 +805,15 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>40975</v>
+        <v>40979</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>40980</v>
+        <v>40986</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1061,23 +821,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>40982</v>
+        <v>40993</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>40987</v>
+        <v>41000</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>40989</v>
+        <v>41007</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1085,15 +845,15 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>40994</v>
+        <v>41014</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>40996</v>
+        <v>41021</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1101,15 +861,15 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>41003</v>
+        <v>41028</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>41010</v>
+        <v>41035</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1117,15 +877,15 @@
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>41015</v>
+        <v>41042</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>41017</v>
+        <v>41049</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1133,7 +893,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>41024</v>
+        <v>41056</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1141,15 +901,15 @@
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>41029</v>
+        <v>41063</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>41031</v>
+        <v>41070</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1157,7 +917,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>41038</v>
+        <v>41077</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1165,7 +925,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>41045</v>
+        <v>41084</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1173,7 +933,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>41052</v>
+        <v>41091</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1181,7 +941,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>41059</v>
+        <v>41098</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1189,7 +949,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>41066</v>
+        <v>41105</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1197,7 +957,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>41073</v>
+        <v>41112</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1205,7 +965,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>41080</v>
+        <v>41119</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1213,7 +973,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>41087</v>
+        <v>41126</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1221,7 +981,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>41094</v>
+        <v>41133</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1229,7 +989,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>41101</v>
+        <v>41140</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1237,7 +997,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>41108</v>
+        <v>41147</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1245,7 +1005,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>41115</v>
+        <v>41154</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1253,7 +1013,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>41122</v>
+        <v>41161</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1261,7 +1021,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>41129</v>
+        <v>41168</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1269,7 +1029,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>41136</v>
+        <v>41175</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1277,66 +1037,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>41143</v>
+        <v>41182</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>41150</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>41157</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2">
-        <v>41164</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2">
-        <v>41171</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2">
-        <v>41178</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>41183</v>
-      </c>
-      <c r="B38">
         <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2">
-        <v>41185</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +366,15 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>wave</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>n_protests</t>
         </is>
@@ -378,20 +383,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Quebec Tuition Protests in 2012</t>
+          <t>First Canada Wave</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>year = 2012 AND location = QC AND issue = "Tuition"</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>First Canada Wave</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Quebec Police Violence Protests in 2012</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>10</v>
       </c>
     </row>

--- a/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
@@ -383,7 +383,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>First Canada Wave</t>
+          <t>First Canada Wave (Quebec 2012)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -398,7 +398,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>First Canada Wave</t>
+          <t>First Canada Wave (Quebec 2012)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/canada-wave-counts/first_canada_wave_counts.xlsx
@@ -392,7 +392,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -579,7 +579,7 @@
         <v>41056</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
